--- a/Conceptos_relaciones/BTM/BTM_alpha.xlsx
+++ b/Conceptos_relaciones/BTM/BTM_alpha.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -97,6 +97,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -132,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -141,6 +142,7 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -432,8 +434,8 @@
       <c r="J2" s="2">
         <v>-2.57332124898212</v>
       </c>
-      <c r="K2" s="3">
-        <v>-2.660876347973617</v>
+      <c r="K2" s="2">
+        <v>-2.748367199032573</v>
       </c>
       <c r="L2" s="2">
         <v>-2.815608305037856</v>
@@ -555,7 +557,7 @@
       <c r="G5" s="2">
         <v>-2.158220737262313</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>-2.395941501412659</v>
       </c>
       <c r="I5" s="2">
@@ -734,11 +736,11 @@
       <c r="H9" s="2">
         <v>-2.239087641839454</v>
       </c>
-      <c r="I9" s="3">
-        <v>-2.336226221038034</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-2.573076932805722</v>
+      <c r="I9" s="2">
+        <v>-2.623465668221948</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-2.667434353454715</v>
       </c>
       <c r="K9" s="2">
         <v>-2.67267008468441</v>
@@ -1027,11 +1029,11 @@
       <c r="C16" s="3">
         <v>-1.28541764233501</v>
       </c>
-      <c r="D16" s="2">
-        <v>-1.857292600138887</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-1.844139424571915</v>
+      <c r="D16" s="3">
+        <v>-1.644635318324417</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-1.706188669650443</v>
       </c>
       <c r="F16" s="3">
         <v>-1.877482267775326</v>
@@ -1039,17 +1041,17 @@
       <c r="G16" s="3">
         <v>-1.980901881136039</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>-2.366257947207366</v>
       </c>
-      <c r="I16" s="2">
-        <v>-2.623465668221948</v>
-      </c>
-      <c r="J16" s="2">
-        <v>-2.667434353454715</v>
-      </c>
-      <c r="K16" s="2">
-        <v>-2.748367199032573</v>
+      <c r="I16" s="3">
+        <v>-2.336226221038034</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-2.573076932805722</v>
+      </c>
+      <c r="K16" s="3">
+        <v>-2.660876347973617</v>
       </c>
       <c r="L16" s="3">
         <v>-2.806088542973296</v>
@@ -1203,11 +1205,11 @@
       <c r="C20" s="2">
         <v>-1.649253588594966</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1.644635318324417</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1.706188669650443</v>
+      <c r="D20" s="2">
+        <v>-1.857292600138887</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-1.844139424571915</v>
       </c>
       <c r="F20" s="2">
         <v>-2.044864125280205</v>
